--- a/materials/Week4Questions.xlsx
+++ b/materials/Week4Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61F9A18-7907-4E84-90F6-211130C500C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C61F9A18-7907-4E84-90F6-211130C500C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0A7E6361-9A0A-4ECC-83E4-856D2F2E729A}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="370" windowWidth="20980" windowHeight="10750" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
+    <workbookView xWindow="1608" yWindow="264" windowWidth="19572" windowHeight="11724" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="391">
   <si>
     <t>https://www.youtube.com/watch?v=1PsPfMaLWSk</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>Old questions kept for examples.</t>
+  </si>
+  <si>
+    <t>Null hypothesis significance testing</t>
   </si>
 </sst>
 </file>
@@ -1555,19 +1558,19 @@
   <dimension ref="A1:AH156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="17" max="17" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>347</v>
       </c>
@@ -1671,12 +1674,17 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>381</v>
       </c>
@@ -1696,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>381</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>381</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>381</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>381</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>382</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>381</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -1888,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>381</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>381</v>
       </c>
@@ -1928,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>381</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>381</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -1988,7 +1996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>381</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>381</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>381</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>382</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>382</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>381</v>
       </c>
@@ -2218,7 +2226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>381</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>381</v>
       </c>
@@ -2258,7 +2266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>381</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>381</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>381</v>
       </c>
@@ -2338,7 +2346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>381</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>381</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>383</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>383</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>383</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>383</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>381</v>
       </c>
@@ -2588,7 +2596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>381</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>381</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>381</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>381</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>382</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>382</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>382</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>382</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>382</v>
       </c>
@@ -2813,7 +2821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>382</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>382</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -2929,7 +2937,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>382</v>
       </c>
@@ -2987,7 +2995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>383</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>383</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>383</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>383</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>383</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>383</v>
       </c>
@@ -3260,7 +3268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -3360,7 +3368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>381</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>381</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -3435,7 +3443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>382</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>382</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>382</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -3560,7 +3568,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>381</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>381</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>381</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>381</v>
       </c>
@@ -3640,7 +3648,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>381</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>381</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>381</v>
       </c>
@@ -3720,7 +3728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>381</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>381</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>381</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>381</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>381</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>381</v>
       </c>
@@ -3840,7 +3848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>381</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>381</v>
       </c>
@@ -3880,7 +3888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>381</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>381</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>381</v>
       </c>
@@ -3940,7 +3948,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>381</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>381</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>381</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>381</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>381</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>382</v>
       </c>
@@ -4095,7 +4103,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -4130,7 +4138,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>382</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>382</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>382</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -4270,7 +4278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>382</v>
       </c>
@@ -4305,7 +4313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>382</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>382</v>
       </c>
@@ -4480,7 +4488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>382</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>382</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>382</v>
       </c>
@@ -4620,7 +4628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>382</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>382</v>
       </c>
@@ -4690,7 +4698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>382</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>382</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -4795,7 +4803,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>382</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>382</v>
       </c>
@@ -4865,7 +4873,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>382</v>
       </c>
@@ -4900,7 +4908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>382</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>382</v>
       </c>
@@ -4970,7 +4978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>382</v>
       </c>
@@ -5005,7 +5013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>382</v>
       </c>
@@ -5040,7 +5048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>382</v>
       </c>
@@ -5075,7 +5083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>382</v>
       </c>
@@ -5110,7 +5118,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -5145,7 +5153,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>382</v>
       </c>

--- a/materials/Week4Questions.xlsx
+++ b/materials/Week4Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C61F9A18-7907-4E84-90F6-211130C500C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0A7E6361-9A0A-4ECC-83E4-856D2F2E729A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087238E5-D3AC-4F83-A985-603DEF90218E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="264" windowWidth="19572" windowHeight="11724" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="406">
   <si>
     <t>https://www.youtube.com/watch?v=1PsPfMaLWSk</t>
   </si>
@@ -1202,7 +1202,52 @@
     <t>Old questions kept for examples.</t>
   </si>
   <si>
-    <t>Null hypothesis significance testing</t>
+    <t>w04001</t>
+  </si>
+  <si>
+    <t>Statistical Hypothesis Inference Testing is another name for Null Hypothesis Significance Testing.</t>
+  </si>
+  <si>
+    <t>Field 3.2</t>
+  </si>
+  <si>
+    <t>In NHST a statistically significant result means that the effect is clinically important.</t>
+  </si>
+  <si>
+    <t>In NHST a non-significant result means the null hypothesis is true.</t>
+  </si>
+  <si>
+    <t>In NHST a non-significant result means the effect was not large enough to be detected given the sample size.</t>
+  </si>
+  <si>
+    <t>In NHST a statistically significant result means the null hypothesis is false.</t>
+  </si>
+  <si>
+    <t>One problem with NHST is it encourages all or nothing thinking.</t>
+  </si>
+  <si>
+    <t>A statistical test with a p-value of 0.0501 and another with a p-value of 0.0499 would likely have about the same effect size.</t>
+  </si>
+  <si>
+    <t>The conclusions from NHST are dependent on the intentions of the scientist before data are collected.</t>
+  </si>
+  <si>
+    <t>Type I (alpha) and Type II (beta) error rates are probabilities expected from repeated identical experiments (long-run probabilities).</t>
+  </si>
+  <si>
+    <t>Researcher degrees of freedom' refers to the fact that researchers have many decisions to make when designing and analyzing a study.</t>
+  </si>
+  <si>
+    <t>p-hacking is selective reporting of significant results.</t>
+  </si>
+  <si>
+    <t>HARKing is hypothesizing after the results are known.</t>
+  </si>
+  <si>
+    <t>p-hacking and HARKing are ways to cheat the NHST system.</t>
+  </si>
+  <si>
+    <t>p-hacking and HARKing increase the Type 1 error rate.</t>
   </si>
 </sst>
 </file>
@@ -1558,19 +1603,19 @@
   <dimension ref="A1:AH156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>347</v>
       </c>
@@ -1674,17 +1719,136 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>381</v>
       </c>
@@ -1704,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -1724,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>381</v>
       </c>
@@ -1744,7 +1908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -1764,7 +1928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>381</v>
       </c>
@@ -1784,7 +1948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>381</v>
       </c>
@@ -1804,7 +1968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>381</v>
       </c>
@@ -1824,7 +1988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>382</v>
       </c>
@@ -1856,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>381</v>
       </c>
@@ -1876,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -1896,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>381</v>
       </c>
@@ -1916,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>381</v>
       </c>
@@ -1936,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>381</v>
       </c>
@@ -1956,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>381</v>
       </c>
@@ -1976,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -1996,7 +2160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>381</v>
       </c>
@@ -2016,7 +2180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>381</v>
       </c>
@@ -2036,7 +2200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>381</v>
       </c>
@@ -2056,7 +2220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -2076,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -2096,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>382</v>
       </c>
@@ -2131,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -2151,7 +2315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -2171,7 +2335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>382</v>
       </c>
@@ -2206,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>381</v>
       </c>
@@ -2226,7 +2390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>381</v>
       </c>
@@ -2246,7 +2410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>381</v>
       </c>
@@ -2266,7 +2430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>381</v>
       </c>
@@ -2286,7 +2450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>381</v>
       </c>
@@ -2306,7 +2470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -2326,7 +2490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>381</v>
       </c>
@@ -2346,7 +2510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>381</v>
       </c>
@@ -2366,7 +2530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>381</v>
       </c>
@@ -2386,7 +2550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>383</v>
       </c>
@@ -2436,7 +2600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>383</v>
       </c>
@@ -2486,7 +2650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>383</v>
       </c>
@@ -2518,7 +2682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>383</v>
       </c>
@@ -2556,7 +2720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -2576,7 +2740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>381</v>
       </c>
@@ -2596,7 +2760,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>381</v>
       </c>
@@ -2616,7 +2780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>381</v>
       </c>
@@ -2636,7 +2800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>381</v>
       </c>
@@ -2656,7 +2820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>381</v>
       </c>
@@ -2676,7 +2840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>382</v>
       </c>
@@ -2705,7 +2869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>382</v>
       </c>
@@ -2734,7 +2898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>382</v>
       </c>
@@ -2763,7 +2927,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>382</v>
       </c>
@@ -2792,7 +2956,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>382</v>
       </c>
@@ -2821,7 +2985,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -2850,7 +3014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>382</v>
       </c>
@@ -2879,7 +3043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>382</v>
       </c>
@@ -2908,7 +3072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -2937,7 +3101,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -2966,7 +3130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>382</v>
       </c>
@@ -2995,7 +3159,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>383</v>
       </c>
@@ -3045,7 +3209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>383</v>
       </c>
@@ -3092,7 +3256,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>383</v>
       </c>
@@ -3130,7 +3294,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>383</v>
       </c>
@@ -3168,7 +3332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>383</v>
       </c>
@@ -3218,7 +3382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>383</v>
       </c>
@@ -3268,7 +3432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -3318,7 +3482,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -3368,7 +3532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>381</v>
       </c>
@@ -3388,7 +3552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>381</v>
       </c>
@@ -3408,7 +3572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -3443,7 +3607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>382</v>
       </c>
@@ -3478,7 +3642,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>382</v>
       </c>
@@ -3513,7 +3677,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>382</v>
       </c>
@@ -3548,7 +3712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -3568,7 +3732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>381</v>
       </c>
@@ -3588,7 +3752,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>381</v>
       </c>
@@ -3608,7 +3772,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>381</v>
       </c>
@@ -3628,7 +3792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>381</v>
       </c>
@@ -3648,7 +3812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>381</v>
       </c>
@@ -3668,7 +3832,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>381</v>
       </c>
@@ -3688,7 +3852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -3708,7 +3872,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>381</v>
       </c>
@@ -3728,7 +3892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>381</v>
       </c>
@@ -3748,7 +3912,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>381</v>
       </c>
@@ -3768,7 +3932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>381</v>
       </c>
@@ -3788,7 +3952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>381</v>
       </c>
@@ -3808,7 +3972,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>381</v>
       </c>
@@ -3828,7 +3992,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>381</v>
       </c>
@@ -3848,7 +4012,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>381</v>
       </c>
@@ -3868,7 +4032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>381</v>
       </c>
@@ -3888,7 +4052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>381</v>
       </c>
@@ -3908,7 +4072,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>381</v>
       </c>
@@ -3928,7 +4092,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>381</v>
       </c>
@@ -3948,7 +4112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -3968,7 +4132,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>381</v>
       </c>
@@ -3988,7 +4152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>381</v>
       </c>
@@ -4008,7 +4172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>381</v>
       </c>
@@ -4028,7 +4192,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>381</v>
       </c>
@@ -4048,7 +4212,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>381</v>
       </c>
@@ -4068,7 +4232,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>382</v>
       </c>
@@ -4103,7 +4267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -4138,7 +4302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>382</v>
       </c>
@@ -4173,7 +4337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>382</v>
       </c>
@@ -4208,7 +4372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>382</v>
       </c>
@@ -4243,7 +4407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -4278,7 +4442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>382</v>
       </c>
@@ -4313,7 +4477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -4348,7 +4512,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -4383,7 +4547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -4418,7 +4582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>382</v>
       </c>
@@ -4453,7 +4617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>382</v>
       </c>
@@ -4488,7 +4652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -4523,7 +4687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>382</v>
       </c>
@@ -4558,7 +4722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>382</v>
       </c>
@@ -4593,7 +4757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>382</v>
       </c>
@@ -4628,7 +4792,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>382</v>
       </c>
@@ -4663,7 +4827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>382</v>
       </c>
@@ -4698,7 +4862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>382</v>
       </c>
@@ -4733,7 +4897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>382</v>
       </c>
@@ -4768,7 +4932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -4803,7 +4967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>382</v>
       </c>
@@ -4838,7 +5002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>382</v>
       </c>
@@ -4873,7 +5037,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>382</v>
       </c>
@@ -4908,7 +5072,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>382</v>
       </c>
@@ -4943,7 +5107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>382</v>
       </c>
@@ -4978,7 +5142,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>382</v>
       </c>
@@ -5013,7 +5177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>382</v>
       </c>
@@ -5048,7 +5212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>382</v>
       </c>
@@ -5083,7 +5247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>382</v>
       </c>
@@ -5118,7 +5282,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -5153,7 +5317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>382</v>
       </c>

--- a/materials/Week4Questions.xlsx
+++ b/materials/Week4Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3636E9-DC6F-45F3-919F-748BC3E1D286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{8C33A75A-AF09-4C9E-A96A-59F63DAE1020}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13CCED58-4D02-4A1F-ADDF-D6166A5829AB}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="5145" windowWidth="18900" windowHeight="11055" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
+    <workbookView xWindow="4032" yWindow="132" windowWidth="18840" windowHeight="11724" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="2" r:id="rId1"/>
@@ -1020,21 +1020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F54A43F-FA7D-40F7-85DB-59E611BE8551}">
   <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="15" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="15" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1998,10 +1998,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>137</v>
       </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45" t="s">
         <v>126</v>
       </c>
@@ -2012,10 +2015,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>138</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>127</v>
       </c>
@@ -2026,10 +2032,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>139</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>128</v>
       </c>
@@ -2040,10 +2049,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>140</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>129</v>
       </c>
@@ -2054,10 +2066,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>141</v>
       </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>130</v>
       </c>
@@ -2068,10 +2083,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>142</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>131</v>
       </c>
@@ -2082,10 +2100,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>136</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>132</v>
       </c>
@@ -2096,10 +2117,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>153</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>133</v>
       </c>
@@ -2110,10 +2134,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>154</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>143</v>
       </c>
@@ -2124,10 +2151,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>155</v>
       </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>144</v>
       </c>
@@ -2138,10 +2168,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>156</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>145</v>
       </c>
@@ -2152,10 +2185,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>157</v>
       </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56" t="s">
         <v>146</v>
       </c>
@@ -2166,10 +2202,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>158</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>147</v>
       </c>
@@ -2180,10 +2219,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>159</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>148</v>
       </c>
@@ -2194,10 +2236,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>160</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>149</v>
       </c>
@@ -2208,10 +2253,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>161</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60" t="s">
         <v>150</v>
       </c>
@@ -2222,10 +2270,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>165</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61" t="s">
         <v>162</v>
       </c>
@@ -2236,10 +2287,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>166</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62" t="s">
         <v>163</v>
       </c>
@@ -2250,10 +2304,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>167</v>
       </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
       <c r="D63" t="s">
         <v>164</v>
       </c>
@@ -2264,10 +2321,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>175</v>
       </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64" t="s">
         <v>168</v>
       </c>
@@ -2278,10 +2338,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>176</v>
       </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
       <c r="D65" t="s">
         <v>169</v>
       </c>
@@ -2292,10 +2355,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>177</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66" t="s">
         <v>171</v>
       </c>
@@ -2306,10 +2372,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>178</v>
       </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
         <v>172</v>
       </c>
@@ -2320,10 +2389,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>179</v>
       </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68" t="s">
         <v>173</v>
       </c>
@@ -2334,10 +2406,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>189</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69" t="s">
         <v>180</v>
       </c>
@@ -2348,10 +2423,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>190</v>
       </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
       <c r="D70" t="s">
         <v>181</v>
       </c>
@@ -2362,10 +2440,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>191</v>
       </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71" t="s">
         <v>183</v>
       </c>
@@ -2376,10 +2457,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>192</v>
       </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
       <c r="D72" t="s">
         <v>185</v>
       </c>
@@ -2390,10 +2474,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>193</v>
       </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73" t="s">
         <v>186</v>
       </c>
@@ -2404,10 +2491,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>194</v>
       </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74" t="s">
         <v>187</v>
       </c>
@@ -2418,10 +2508,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>195</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75" t="s">
         <v>188</v>
       </c>
@@ -2432,10 +2525,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>196</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
       <c r="D76" t="s">
         <v>197</v>
       </c>
@@ -2446,10 +2542,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>206</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
       <c r="D77" t="s">
         <v>198</v>
       </c>
@@ -2460,10 +2559,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>207</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78" t="s">
         <v>200</v>
       </c>
@@ -2474,10 +2576,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>208</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79" t="s">
         <v>201</v>
       </c>
@@ -2488,10 +2593,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>209</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
       <c r="D80" t="s">
         <v>202</v>
       </c>
@@ -2502,10 +2610,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>210</v>
       </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
       <c r="D81" t="s">
         <v>203</v>
       </c>
@@ -2516,9 +2627,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>211</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>204</v>

--- a/materials/Week4Questions.xlsx
+++ b/materials/Week4Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{8C33A75A-AF09-4C9E-A96A-59F63DAE1020}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13CCED58-4D02-4A1F-ADDF-D6166A5829AB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{8C33A75A-AF09-4C9E-A96A-59F63DAE1020}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{464BC930-5D64-4E2B-97BF-011456ABF082}"/>
   <bookViews>
     <workbookView xWindow="4032" yWindow="132" windowWidth="18840" windowHeight="11724" xr2:uid="{F51AF9FE-1576-4C0C-B963-4870BE35EA56}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="212">
   <si>
     <t>Type</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Field 3.2</t>
   </si>
   <si>
-    <t>In NHST a statistically significant result means that the effect is clinically important.</t>
-  </si>
-  <si>
     <t>In NHST a non-significant result means the null hypothesis is true.</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>w04081redbias</t>
+  </si>
+  <si>
+    <t>In NHST a statistically significant result guarantees that the effect is clinically important.</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F54A43F-FA7D-40F7-85DB-59E611BE8551}">
   <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C82"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1157,19 +1157,22 @@
       <c r="Q2" t="s">
         <v>36</v>
       </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1177,19 +1180,22 @@
       <c r="Q3" t="s">
         <v>36</v>
       </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1197,19 +1203,22 @@
       <c r="Q4" t="s">
         <v>36</v>
       </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1217,19 +1226,22 @@
       <c r="Q5" t="s">
         <v>36</v>
       </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1237,19 +1249,22 @@
       <c r="Q6" t="s">
         <v>36</v>
       </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1257,19 +1272,22 @@
       <c r="Q7" t="s">
         <v>36</v>
       </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1277,25 +1295,31 @@
       <c r="Q8" t="s">
         <v>36</v>
       </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1303,19 +1327,22 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1323,19 +1350,22 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -1343,19 +1373,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -1363,19 +1396,22 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -1383,19 +1419,22 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -1403,19 +1442,22 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
+      <c r="R15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -1423,1225 +1465,1426 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="R18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="R19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="R21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>103</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>114</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="R34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="R35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>117</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
         <v>119</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>76</v>
       </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>77</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="R40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="R41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
       <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>80</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
         <v>81</v>
       </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>125</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>134</v>
+      </c>
+      <c r="R45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>126</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>134</v>
+      </c>
+      <c r="R46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>134</v>
+      </c>
+      <c r="R47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>128</v>
       </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>134</v>
+      </c>
+      <c r="R48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>140</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>129</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>130</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="Q49" t="s">
+        <v>134</v>
+      </c>
+      <c r="R49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>134</v>
+      </c>
+      <c r="R50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>133</v>
+      </c>
+      <c r="R51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>133</v>
+      </c>
+      <c r="R52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
         <v>133</v>
       </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="R53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>154</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>150</v>
+      </c>
+      <c r="R54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>155</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>144</v>
       </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+      <c r="R55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>156</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>145</v>
       </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>151</v>
+      </c>
+      <c r="R56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>157</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>146</v>
       </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>151</v>
+      </c>
+      <c r="R57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>158</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>147</v>
       </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>151</v>
+      </c>
+      <c r="R58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>159</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
         <v>148</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="R59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="R60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>151</v>
+      </c>
+      <c r="R61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>165</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>162</v>
       </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>151</v>
+      </c>
+      <c r="R62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>166</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>163</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="R63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>169</v>
+      </c>
+      <c r="R64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>175</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>168</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>169</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="Q65" t="s">
+        <v>169</v>
+      </c>
+      <c r="R65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>173</v>
+      </c>
+      <c r="R66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>177</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>171</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>173</v>
+      </c>
+      <c r="R67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>178</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>172</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>173</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="R68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>181</v>
+      </c>
+      <c r="R69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>189</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>180</v>
       </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>181</v>
+      </c>
+      <c r="R70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>183</v>
+      </c>
+      <c r="R71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>191</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
         <v>183</v>
       </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="R72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>192</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>185</v>
       </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>183</v>
+      </c>
+      <c r="R73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>193</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
         <v>186</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>183</v>
+      </c>
+      <c r="R74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>194</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>187</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>183</v>
+      </c>
+      <c r="R75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>195</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
         <v>196</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>198</v>
+      </c>
+      <c r="R76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>197</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>198</v>
+      </c>
+      <c r="R77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>204</v>
+      </c>
+      <c r="R78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>207</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
         <v>200</v>
       </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>204</v>
+      </c>
+      <c r="R79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>208</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
         <v>201</v>
       </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>204</v>
+      </c>
+      <c r="R80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>209</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>202</v>
       </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>204</v>
+      </c>
+      <c r="R81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>210</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>203</v>
       </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="s">
         <v>204</v>
       </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>205</v>
+      <c r="R82" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
